--- a/SP 800-53 Analysis for SP 800-171.xlsx
+++ b/SP 800-53 Analysis for SP 800-171.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasmadja/Desktop/GitHub/FedRAMP_SP-800-171_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D94772-6638-7C44-A4B4-DB1D46402D57}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E86E4-1F70-A64B-BEB0-81B8D3F90DE6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28780" windowHeight="15940" xr2:uid="{B9D65870-1D4F-3048-A763-09F296F7DD7A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="1067">
   <si>
     <t>SC_Family</t>
   </si>
@@ -3227,6 +3227,9 @@
   </si>
   <si>
     <t>SYSTEM AND INFORMATION INTEGRITY</t>
+  </si>
+  <si>
+    <t>TRUE/FALSE if in SP 800-53 (H)</t>
   </si>
 </sst>
 </file>
@@ -3578,10 +3581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B784B8-2EB8-144F-B457-58499FA9543D}">
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:J416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3595,9 +3598,10 @@
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3625,8 +3629,11 @@
       <c r="I1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3655,8 +3662,12 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="b">
+        <f>IF(ISERROR(VLOOKUP(I2, $G$2:$G$416, 1, FALSE)), FALSE, TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3685,8 +3696,12 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J66" si="1">IF(ISERROR(VLOOKUP(I3, $G$2:$G$416, 1, FALSE)), FALSE, TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3715,8 +3730,12 @@
       <c r="I4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3745,8 +3764,12 @@
       <c r="I5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3775,8 +3798,12 @@
       <c r="I6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3805,8 +3832,12 @@
       <c r="I7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3835,8 +3866,12 @@
       <c r="I8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3865,8 +3900,12 @@
       <c r="I9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3895,8 +3934,12 @@
       <c r="I10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3925,8 +3968,12 @@
       <c r="I11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3955,8 +4002,12 @@
       <c r="I12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3985,8 +4036,12 @@
       <c r="I13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -4015,8 +4070,12 @@
       <c r="I14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -4045,8 +4104,12 @@
       <c r="I15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -4075,8 +4138,12 @@
       <c r="I16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4105,8 +4172,12 @@
       <c r="I17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4135,8 +4206,12 @@
       <c r="I18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4165,8 +4240,12 @@
       <c r="I19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -4195,8 +4274,12 @@
       <c r="I20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4225,8 +4308,12 @@
       <c r="I21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -4255,8 +4342,12 @@
       <c r="I22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -4285,8 +4376,12 @@
       <c r="I23" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4315,8 +4410,12 @@
       <c r="I24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4345,8 +4444,12 @@
       <c r="I25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4375,8 +4478,12 @@
       <c r="I26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4405,8 +4512,12 @@
       <c r="I27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4435,8 +4546,12 @@
       <c r="I28" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -4465,8 +4580,12 @@
       <c r="I29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4495,8 +4614,12 @@
       <c r="I30" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -4525,8 +4648,12 @@
       <c r="I31" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4555,8 +4682,12 @@
       <c r="I32" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4585,8 +4716,12 @@
       <c r="I33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4615,8 +4750,12 @@
       <c r="I34" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4645,8 +4784,12 @@
       <c r="I35" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -4675,8 +4818,12 @@
       <c r="I36" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -4705,8 +4852,12 @@
       <c r="I37" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4735,8 +4886,12 @@
       <c r="I38" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4765,8 +4920,12 @@
       <c r="I39" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4795,8 +4954,12 @@
       <c r="I40" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4825,8 +4988,12 @@
       <c r="I41" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4855,8 +5022,12 @@
       <c r="I42" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4885,8 +5056,12 @@
       <c r="I43" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4915,8 +5090,12 @@
       <c r="I44" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4945,8 +5124,12 @@
       <c r="I45" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4975,8 +5158,12 @@
       <c r="I46" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -5005,8 +5192,12 @@
       <c r="I47" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5035,8 +5226,12 @@
       <c r="I48" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5065,8 +5260,12 @@
       <c r="I49" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5095,8 +5294,12 @@
       <c r="I50" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5125,8 +5328,12 @@
       <c r="I51" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -5155,8 +5362,12 @@
       <c r="I52" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5185,8 +5396,12 @@
       <c r="I53" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -5215,8 +5430,12 @@
       <c r="I54" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5245,8 +5464,12 @@
       <c r="I55" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -5275,8 +5498,12 @@
       <c r="I56" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -5305,8 +5532,12 @@
       <c r="I57" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>136</v>
       </c>
@@ -5335,8 +5566,12 @@
       <c r="I58" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -5365,8 +5600,12 @@
       <c r="I59" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -5395,8 +5634,12 @@
       <c r="I60" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -5425,8 +5668,12 @@
       <c r="I61" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -5455,8 +5702,12 @@
       <c r="I62" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>156</v>
       </c>
@@ -5485,8 +5736,12 @@
       <c r="I63" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -5515,8 +5770,12 @@
       <c r="I64" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>156</v>
       </c>
@@ -5545,8 +5804,12 @@
       <c r="I65" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -5575,8 +5838,12 @@
       <c r="I66" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -5599,14 +5866,18 @@
         <v>170</v>
       </c>
       <c r="H67" t="b">
-        <f t="shared" ref="H67:H130" si="1">IF(ISERROR(VLOOKUP(G67, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
+        <f t="shared" ref="H67:H130" si="2">IF(ISERROR(VLOOKUP(G67, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
         <v>1</v>
       </c>
       <c r="I67" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" t="b">
+        <f t="shared" ref="J67:J130" si="3">IF(ISERROR(VLOOKUP(I67, $G$2:$G$416, 1, FALSE)), FALSE, TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>156</v>
       </c>
@@ -5629,14 +5900,18 @@
         <v>172</v>
       </c>
       <c r="H68" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I68" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -5659,14 +5934,18 @@
         <v>175</v>
       </c>
       <c r="H69" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I69" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -5689,14 +5968,18 @@
         <v>178</v>
       </c>
       <c r="H70" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I70" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -5719,14 +6002,18 @@
         <v>179</v>
       </c>
       <c r="H71" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I71" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -5749,14 +6036,18 @@
         <v>181</v>
       </c>
       <c r="H72" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I72" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>156</v>
       </c>
@@ -5779,14 +6070,18 @@
         <v>184</v>
       </c>
       <c r="H73" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I73" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -5809,14 +6104,18 @@
         <v>186</v>
       </c>
       <c r="H74" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I74" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -5839,14 +6138,18 @@
         <v>188</v>
       </c>
       <c r="H75" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I75" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -5869,14 +6172,18 @@
         <v>190</v>
       </c>
       <c r="H76" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I76" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -5899,14 +6206,18 @@
         <v>192</v>
       </c>
       <c r="H77" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I77" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -5929,14 +6240,18 @@
         <v>194</v>
       </c>
       <c r="H78" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I78" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -5959,14 +6274,18 @@
         <v>196</v>
       </c>
       <c r="H79" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I79" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -5989,14 +6308,18 @@
         <v>198</v>
       </c>
       <c r="H80" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I80" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -6019,14 +6342,18 @@
         <v>201</v>
       </c>
       <c r="H81" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I81" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -6049,14 +6376,18 @@
         <v>203</v>
       </c>
       <c r="H82" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I82" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -6079,14 +6410,18 @@
         <v>206</v>
       </c>
       <c r="H83" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I83" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -6109,14 +6444,18 @@
         <v>208</v>
       </c>
       <c r="H84" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I84" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -6139,14 +6478,18 @@
         <v>211</v>
       </c>
       <c r="H85" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I85" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -6169,14 +6512,18 @@
         <v>213</v>
       </c>
       <c r="H86" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I86" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -6199,14 +6546,18 @@
         <v>215</v>
       </c>
       <c r="H87" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I87" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -6229,14 +6580,18 @@
         <v>217</v>
       </c>
       <c r="H88" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I88" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -6259,14 +6614,18 @@
         <v>220</v>
       </c>
       <c r="H89" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I89" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -6289,14 +6648,18 @@
         <v>223</v>
       </c>
       <c r="H90" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I90" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -6319,14 +6682,18 @@
         <v>226</v>
       </c>
       <c r="H91" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I91" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -6349,14 +6716,18 @@
         <v>228</v>
       </c>
       <c r="H92" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I92" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -6379,14 +6750,18 @@
         <v>230</v>
       </c>
       <c r="H93" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I93" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>231</v>
       </c>
@@ -6409,14 +6784,18 @@
         <v>235</v>
       </c>
       <c r="H94" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I94" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>231</v>
       </c>
@@ -6439,14 +6818,18 @@
         <v>238</v>
       </c>
       <c r="H95" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I95" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>231</v>
       </c>
@@ -6469,14 +6852,18 @@
         <v>240</v>
       </c>
       <c r="H96" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I96" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>231</v>
       </c>
@@ -6499,14 +6886,18 @@
         <v>242</v>
       </c>
       <c r="H97" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I97" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>231</v>
       </c>
@@ -6529,14 +6920,18 @@
         <v>244</v>
       </c>
       <c r="H98" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>231</v>
       </c>
@@ -6559,14 +6954,18 @@
         <v>247</v>
       </c>
       <c r="H99" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I99" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>231</v>
       </c>
@@ -6589,14 +6988,18 @@
         <v>249</v>
       </c>
       <c r="H100" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I100" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -6619,14 +7022,18 @@
         <v>251</v>
       </c>
       <c r="H101" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I101" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>231</v>
       </c>
@@ -6649,14 +7056,18 @@
         <v>254</v>
       </c>
       <c r="H102" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I102" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>231</v>
       </c>
@@ -6679,14 +7090,18 @@
         <v>257</v>
       </c>
       <c r="H103" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I103" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>231</v>
       </c>
@@ -6709,14 +7124,18 @@
         <v>260</v>
       </c>
       <c r="H104" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I104" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>231</v>
       </c>
@@ -6739,14 +7158,18 @@
         <v>262</v>
       </c>
       <c r="H105" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I105" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>231</v>
       </c>
@@ -6769,14 +7192,18 @@
         <v>264</v>
       </c>
       <c r="H106" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I106" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>231</v>
       </c>
@@ -6799,14 +7226,18 @@
         <v>267</v>
       </c>
       <c r="H107" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I107" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>231</v>
       </c>
@@ -6829,14 +7260,18 @@
         <v>269</v>
       </c>
       <c r="H108" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>231</v>
       </c>
@@ -6859,14 +7294,18 @@
         <v>272</v>
       </c>
       <c r="H109" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I109" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>273</v>
       </c>
@@ -6889,14 +7328,18 @@
         <v>277</v>
       </c>
       <c r="H110" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I110" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>273</v>
       </c>
@@ -6919,14 +7362,18 @@
         <v>280</v>
       </c>
       <c r="H111" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I111" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>273</v>
       </c>
@@ -6949,14 +7396,18 @@
         <v>281</v>
       </c>
       <c r="H112" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I112" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>273</v>
       </c>
@@ -6979,14 +7430,18 @@
         <v>283</v>
       </c>
       <c r="H113" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I113" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>273</v>
       </c>
@@ -7009,14 +7464,18 @@
         <v>285</v>
       </c>
       <c r="H114" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>273</v>
       </c>
@@ -7039,14 +7498,18 @@
         <v>287</v>
       </c>
       <c r="H115" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>273</v>
       </c>
@@ -7069,14 +7532,18 @@
         <v>290</v>
       </c>
       <c r="H116" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I116" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>273</v>
       </c>
@@ -7099,14 +7566,18 @@
         <v>292</v>
       </c>
       <c r="H117" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I117" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>273</v>
       </c>
@@ -7129,14 +7600,18 @@
         <v>294</v>
       </c>
       <c r="H118" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I118" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>273</v>
       </c>
@@ -7159,14 +7634,18 @@
         <v>296</v>
       </c>
       <c r="H119" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I119" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>273</v>
       </c>
@@ -7189,14 +7668,18 @@
         <v>298</v>
       </c>
       <c r="H120" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I120" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>273</v>
       </c>
@@ -7219,14 +7702,18 @@
         <v>301</v>
       </c>
       <c r="H121" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I121" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>273</v>
       </c>
@@ -7249,14 +7736,18 @@
         <v>303</v>
       </c>
       <c r="H122" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I122" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>273</v>
       </c>
@@ -7279,14 +7770,18 @@
         <v>306</v>
       </c>
       <c r="H123" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I123" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>273</v>
       </c>
@@ -7309,14 +7804,18 @@
         <v>308</v>
       </c>
       <c r="H124" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I124" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>273</v>
       </c>
@@ -7339,14 +7838,18 @@
         <v>310</v>
       </c>
       <c r="H125" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I125" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>273</v>
       </c>
@@ -7369,14 +7872,18 @@
         <v>312</v>
       </c>
       <c r="H126" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I126" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>273</v>
       </c>
@@ -7399,14 +7906,18 @@
         <v>314</v>
       </c>
       <c r="H127" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I127" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>273</v>
       </c>
@@ -7429,14 +7940,18 @@
         <v>317</v>
       </c>
       <c r="H128" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I128" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>273</v>
       </c>
@@ -7459,14 +7974,18 @@
         <v>319</v>
       </c>
       <c r="H129" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I129" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>273</v>
       </c>
@@ -7489,14 +8008,18 @@
         <v>321</v>
       </c>
       <c r="H130" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I130" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -7519,14 +8042,18 @@
         <v>324</v>
       </c>
       <c r="H131" t="b">
-        <f t="shared" ref="H131:H194" si="2">IF(ISERROR(VLOOKUP(G131, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
+        <f t="shared" ref="H131:H194" si="4">IF(ISERROR(VLOOKUP(G131, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
         <v>1</v>
       </c>
       <c r="I131" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" t="b">
+        <f t="shared" ref="J131:J194" si="5">IF(ISERROR(VLOOKUP(I131, $G$2:$G$416, 1, FALSE)), FALSE, TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>273</v>
       </c>
@@ -7549,14 +8076,18 @@
         <v>326</v>
       </c>
       <c r="H132" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I132" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>273</v>
       </c>
@@ -7579,14 +8110,18 @@
         <v>328</v>
       </c>
       <c r="H133" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I133" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>273</v>
       </c>
@@ -7609,14 +8144,18 @@
         <v>330</v>
       </c>
       <c r="H134" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I134" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>273</v>
       </c>
@@ -7639,14 +8178,18 @@
         <v>333</v>
       </c>
       <c r="H135" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I135" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>273</v>
       </c>
@@ -7669,14 +8212,18 @@
         <v>335</v>
       </c>
       <c r="H136" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I136" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -7699,14 +8246,18 @@
         <v>337</v>
       </c>
       <c r="H137" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I137" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>273</v>
       </c>
@@ -7729,14 +8280,18 @@
         <v>339</v>
       </c>
       <c r="H138" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I138" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>273</v>
       </c>
@@ -7759,14 +8314,18 @@
         <v>341</v>
       </c>
       <c r="H139" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I139" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>273</v>
       </c>
@@ -7789,14 +8348,18 @@
         <v>343</v>
       </c>
       <c r="H140" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I140" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>273</v>
       </c>
@@ -7819,14 +8382,18 @@
         <v>346</v>
       </c>
       <c r="H141" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I141" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>273</v>
       </c>
@@ -7849,14 +8416,18 @@
         <v>349</v>
       </c>
       <c r="H142" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I142" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>273</v>
       </c>
@@ -7879,14 +8450,18 @@
         <v>351</v>
       </c>
       <c r="H143" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I143" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>273</v>
       </c>
@@ -7909,14 +8484,18 @@
         <v>354</v>
       </c>
       <c r="H144" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I144" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>273</v>
       </c>
@@ -7939,14 +8518,18 @@
         <v>356</v>
       </c>
       <c r="H145" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I145" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>357</v>
       </c>
@@ -7969,14 +8552,18 @@
         <v>361</v>
       </c>
       <c r="H146" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I146" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>357</v>
       </c>
@@ -7999,14 +8586,18 @@
         <v>364</v>
       </c>
       <c r="H147" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I147" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>357</v>
       </c>
@@ -8029,14 +8620,18 @@
         <v>366</v>
       </c>
       <c r="H148" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I148" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>357</v>
       </c>
@@ -8059,14 +8654,18 @@
         <v>368</v>
       </c>
       <c r="H149" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I149" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>357</v>
       </c>
@@ -8089,14 +8688,18 @@
         <v>370</v>
       </c>
       <c r="H150" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I150" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>357</v>
       </c>
@@ -8119,14 +8722,18 @@
         <v>372</v>
       </c>
       <c r="H151" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I151" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>357</v>
       </c>
@@ -8149,14 +8756,18 @@
         <v>374</v>
       </c>
       <c r="H152" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>357</v>
       </c>
@@ -8179,14 +8790,18 @@
         <v>376</v>
       </c>
       <c r="H153" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>357</v>
       </c>
@@ -8209,14 +8824,18 @@
         <v>379</v>
       </c>
       <c r="H154" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I154" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>357</v>
       </c>
@@ -8239,14 +8858,18 @@
         <v>381</v>
       </c>
       <c r="H155" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I155" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>357</v>
       </c>
@@ -8269,14 +8892,18 @@
         <v>384</v>
       </c>
       <c r="H156" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I156" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>357</v>
       </c>
@@ -8299,14 +8926,18 @@
         <v>385</v>
       </c>
       <c r="H157" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I157" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>357</v>
       </c>
@@ -8329,14 +8960,18 @@
         <v>387</v>
       </c>
       <c r="H158" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I158" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>357</v>
       </c>
@@ -8359,14 +8994,18 @@
         <v>390</v>
       </c>
       <c r="H159" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I159" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>357</v>
       </c>
@@ -8389,14 +9028,18 @@
         <v>392</v>
       </c>
       <c r="H160" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I160" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>357</v>
       </c>
@@ -8419,14 +9062,18 @@
         <v>394</v>
       </c>
       <c r="H161" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I161" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>357</v>
       </c>
@@ -8449,14 +9096,18 @@
         <v>396</v>
       </c>
       <c r="H162" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I162" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>357</v>
       </c>
@@ -8479,14 +9130,18 @@
         <v>398</v>
       </c>
       <c r="H163" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I163" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>357</v>
       </c>
@@ -8509,14 +9164,18 @@
         <v>399</v>
       </c>
       <c r="H164" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I164" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>357</v>
       </c>
@@ -8539,14 +9198,18 @@
         <v>400</v>
       </c>
       <c r="H165" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I165" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>357</v>
       </c>
@@ -8569,14 +9232,18 @@
         <v>402</v>
       </c>
       <c r="H166" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I166" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>357</v>
       </c>
@@ -8599,14 +9266,18 @@
         <v>404</v>
       </c>
       <c r="H167" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I167" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>357</v>
       </c>
@@ -8629,14 +9300,18 @@
         <v>407</v>
       </c>
       <c r="H168" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I168" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>357</v>
       </c>
@@ -8659,14 +9334,18 @@
         <v>409</v>
       </c>
       <c r="H169" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I169" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>357</v>
       </c>
@@ -8689,14 +9368,18 @@
         <v>411</v>
       </c>
       <c r="H170" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I170" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>357</v>
       </c>
@@ -8719,14 +9402,18 @@
         <v>413</v>
       </c>
       <c r="H171" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I171" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>357</v>
       </c>
@@ -8749,14 +9436,18 @@
         <v>415</v>
       </c>
       <c r="H172" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I172" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>357</v>
       </c>
@@ -8779,14 +9470,18 @@
         <v>418</v>
       </c>
       <c r="H173" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I173" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -8809,14 +9504,18 @@
         <v>420</v>
       </c>
       <c r="H174" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I174" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>357</v>
       </c>
@@ -8839,14 +9538,18 @@
         <v>422</v>
       </c>
       <c r="H175" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I175" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>357</v>
       </c>
@@ -8869,14 +9572,18 @@
         <v>424</v>
       </c>
       <c r="H176" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I176" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>357</v>
       </c>
@@ -8899,14 +9606,18 @@
         <v>426</v>
       </c>
       <c r="H177" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I177" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>357</v>
       </c>
@@ -8929,14 +9640,18 @@
         <v>429</v>
       </c>
       <c r="H178" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I178" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -8959,14 +9674,18 @@
         <v>431</v>
       </c>
       <c r="H179" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I179" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>357</v>
       </c>
@@ -8989,14 +9708,18 @@
         <v>433</v>
       </c>
       <c r="H180" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I180" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>434</v>
       </c>
@@ -9019,14 +9742,18 @@
         <v>438</v>
       </c>
       <c r="H181" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I181" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>434</v>
       </c>
@@ -9049,14 +9776,18 @@
         <v>441</v>
       </c>
       <c r="H182" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I182" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>434</v>
       </c>
@@ -9079,14 +9810,18 @@
         <v>443</v>
       </c>
       <c r="H183" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I183" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>434</v>
       </c>
@@ -9109,14 +9844,18 @@
         <v>445</v>
       </c>
       <c r="H184" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I184" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>434</v>
       </c>
@@ -9139,14 +9878,18 @@
         <v>447</v>
       </c>
       <c r="H185" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I185" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>434</v>
       </c>
@@ -9169,14 +9912,18 @@
         <v>449</v>
       </c>
       <c r="H186" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I186" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>434</v>
       </c>
@@ -9199,14 +9946,18 @@
         <v>451</v>
       </c>
       <c r="H187" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I187" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>434</v>
       </c>
@@ -9229,14 +9980,18 @@
         <v>453</v>
       </c>
       <c r="H188" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I188" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>434</v>
       </c>
@@ -9259,14 +10014,18 @@
         <v>455</v>
       </c>
       <c r="H189" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I189" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>434</v>
       </c>
@@ -9289,14 +10048,18 @@
         <v>457</v>
       </c>
       <c r="H190" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I190" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>434</v>
       </c>
@@ -9319,14 +10082,18 @@
         <v>459</v>
       </c>
       <c r="H191" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I191" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>434</v>
       </c>
@@ -9349,14 +10116,18 @@
         <v>462</v>
       </c>
       <c r="H192" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I192" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>434</v>
       </c>
@@ -9379,14 +10150,18 @@
         <v>465</v>
       </c>
       <c r="H193" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I193" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>434</v>
       </c>
@@ -9409,14 +10184,18 @@
         <v>467</v>
       </c>
       <c r="H194" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I194" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>434</v>
       </c>
@@ -9439,14 +10218,18 @@
         <v>470</v>
       </c>
       <c r="H195" t="b">
-        <f t="shared" ref="H195:H258" si="3">IF(ISERROR(VLOOKUP(G195, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
+        <f t="shared" ref="H195:H258" si="6">IF(ISERROR(VLOOKUP(G195, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
         <v>1</v>
       </c>
       <c r="I195" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" t="b">
+        <f t="shared" ref="J195:J258" si="7">IF(ISERROR(VLOOKUP(I195, $G$2:$G$416, 1, FALSE)), FALSE, TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>434</v>
       </c>
@@ -9469,14 +10252,18 @@
         <v>472</v>
       </c>
       <c r="H196" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I196" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>434</v>
       </c>
@@ -9499,14 +10286,18 @@
         <v>474</v>
       </c>
       <c r="H197" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I197" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>434</v>
       </c>
@@ -9529,14 +10320,18 @@
         <v>476</v>
       </c>
       <c r="H198" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I198" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>434</v>
       </c>
@@ -9559,14 +10354,18 @@
         <v>478</v>
       </c>
       <c r="H199" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I199" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>434</v>
       </c>
@@ -9589,14 +10388,18 @@
         <v>480</v>
       </c>
       <c r="H200" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I200" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>434</v>
       </c>
@@ -9619,14 +10422,18 @@
         <v>482</v>
       </c>
       <c r="H201" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I201" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>434</v>
       </c>
@@ -9649,11 +10456,15 @@
         <v>484</v>
       </c>
       <c r="H202" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J202" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>434</v>
       </c>
@@ -9676,11 +10487,15 @@
         <v>486</v>
       </c>
       <c r="H203" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J203" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>434</v>
       </c>
@@ -9703,11 +10518,15 @@
         <v>488</v>
       </c>
       <c r="H204" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J204" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>434</v>
       </c>
@@ -9730,11 +10549,15 @@
         <v>491</v>
       </c>
       <c r="H205" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J205" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>434</v>
       </c>
@@ -9757,11 +10580,15 @@
         <v>494</v>
       </c>
       <c r="H206" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J206" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>434</v>
       </c>
@@ -9784,11 +10611,15 @@
         <v>497</v>
       </c>
       <c r="H207" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J207" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>434</v>
       </c>
@@ -9811,11 +10642,15 @@
         <v>499</v>
       </c>
       <c r="H208" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J208" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>434</v>
       </c>
@@ -9838,11 +10673,15 @@
         <v>501</v>
       </c>
       <c r="H209" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J209" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>434</v>
       </c>
@@ -9865,11 +10704,15 @@
         <v>503</v>
       </c>
       <c r="H210" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J210" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>434</v>
       </c>
@@ -9892,11 +10735,15 @@
         <v>505</v>
       </c>
       <c r="H211" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J211" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>506</v>
       </c>
@@ -9919,11 +10766,15 @@
         <v>510</v>
       </c>
       <c r="H212" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J212" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>506</v>
       </c>
@@ -9946,11 +10797,15 @@
         <v>513</v>
       </c>
       <c r="H213" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J213" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>506</v>
       </c>
@@ -9973,11 +10828,15 @@
         <v>514</v>
       </c>
       <c r="H214" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J214" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>506</v>
       </c>
@@ -10000,11 +10859,15 @@
         <v>516</v>
       </c>
       <c r="H215" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J215" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>506</v>
       </c>
@@ -10027,11 +10890,15 @@
         <v>519</v>
       </c>
       <c r="H216" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J216" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>506</v>
       </c>
@@ -10054,11 +10921,15 @@
         <v>521</v>
       </c>
       <c r="H217" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J217" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>506</v>
       </c>
@@ -10081,11 +10952,15 @@
         <v>524</v>
       </c>
       <c r="H218" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J218" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>506</v>
       </c>
@@ -10108,11 +10983,15 @@
         <v>526</v>
       </c>
       <c r="H219" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J219" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>506</v>
       </c>
@@ -10135,11 +11014,15 @@
         <v>528</v>
       </c>
       <c r="H220" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J220" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>506</v>
       </c>
@@ -10162,11 +11045,15 @@
         <v>530</v>
       </c>
       <c r="H221" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J221" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>506</v>
       </c>
@@ -10189,11 +11076,15 @@
         <v>532</v>
       </c>
       <c r="H222" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J222" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>506</v>
       </c>
@@ -10216,11 +11107,15 @@
         <v>534</v>
       </c>
       <c r="H223" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J223" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>506</v>
       </c>
@@ -10243,11 +11138,15 @@
         <v>536</v>
       </c>
       <c r="H224" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J224" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>506</v>
       </c>
@@ -10270,11 +11169,15 @@
         <v>539</v>
       </c>
       <c r="H225" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J225" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>506</v>
       </c>
@@ -10297,11 +11200,15 @@
         <v>541</v>
       </c>
       <c r="H226" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J226" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>506</v>
       </c>
@@ -10324,11 +11231,15 @@
         <v>544</v>
       </c>
       <c r="H227" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J227" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>506</v>
       </c>
@@ -10351,11 +11262,15 @@
         <v>546</v>
       </c>
       <c r="H228" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J228" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>506</v>
       </c>
@@ -10378,11 +11293,15 @@
         <v>549</v>
       </c>
       <c r="H229" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J229" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>506</v>
       </c>
@@ -10405,11 +11324,15 @@
         <v>551</v>
       </c>
       <c r="H230" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J230" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>506</v>
       </c>
@@ -10432,11 +11355,15 @@
         <v>553</v>
       </c>
       <c r="H231" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J231" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>506</v>
       </c>
@@ -10459,11 +11386,15 @@
         <v>556</v>
       </c>
       <c r="H232" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J232" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>557</v>
       </c>
@@ -10486,11 +11417,15 @@
         <v>561</v>
       </c>
       <c r="H233" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J233" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>557</v>
       </c>
@@ -10513,11 +11448,15 @@
         <v>564</v>
       </c>
       <c r="H234" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J234" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>557</v>
       </c>
@@ -10540,11 +11479,15 @@
         <v>566</v>
       </c>
       <c r="H235" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J235" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>557</v>
       </c>
@@ -10567,11 +11510,15 @@
         <v>569</v>
       </c>
       <c r="H236" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J236" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>557</v>
       </c>
@@ -10594,11 +11541,15 @@
         <v>571</v>
       </c>
       <c r="H237" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J237" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>557</v>
       </c>
@@ -10621,11 +11572,15 @@
         <v>573</v>
       </c>
       <c r="H238" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J238" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>557</v>
       </c>
@@ -10648,11 +11603,15 @@
         <v>575</v>
       </c>
       <c r="H239" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J239" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>557</v>
       </c>
@@ -10675,11 +11634,15 @@
         <v>578</v>
       </c>
       <c r="H240" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J240" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>557</v>
       </c>
@@ -10702,11 +11665,15 @@
         <v>580</v>
       </c>
       <c r="H241" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J241" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>557</v>
       </c>
@@ -10729,11 +11696,15 @@
         <v>582</v>
       </c>
       <c r="H242" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J242" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>557</v>
       </c>
@@ -10756,11 +11727,15 @@
         <v>583</v>
       </c>
       <c r="H243" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J243" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>557</v>
       </c>
@@ -10783,11 +11758,15 @@
         <v>586</v>
       </c>
       <c r="H244" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J244" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>557</v>
       </c>
@@ -10810,11 +11789,15 @@
         <v>588</v>
       </c>
       <c r="H245" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J245" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>557</v>
       </c>
@@ -10837,11 +11820,15 @@
         <v>591</v>
       </c>
       <c r="H246" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J246" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>592</v>
       </c>
@@ -10864,11 +11851,15 @@
         <v>596</v>
       </c>
       <c r="H247" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J247" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>592</v>
       </c>
@@ -10891,11 +11882,15 @@
         <v>599</v>
       </c>
       <c r="H248" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J248" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>592</v>
       </c>
@@ -10918,11 +11913,15 @@
         <v>602</v>
       </c>
       <c r="H249" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J249" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>592</v>
       </c>
@@ -10945,11 +11944,15 @@
         <v>605</v>
       </c>
       <c r="H250" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J250" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>592</v>
       </c>
@@ -10972,11 +11975,15 @@
         <v>608</v>
       </c>
       <c r="H251" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J251" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>592</v>
       </c>
@@ -10999,11 +12006,15 @@
         <v>609</v>
       </c>
       <c r="H252" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J252" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>592</v>
       </c>
@@ -11026,11 +12037,15 @@
         <v>612</v>
       </c>
       <c r="H253" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J253" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>592</v>
       </c>
@@ -11053,11 +12068,15 @@
         <v>614</v>
       </c>
       <c r="H254" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J254" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>592</v>
       </c>
@@ -11080,11 +12099,15 @@
         <v>616</v>
       </c>
       <c r="H255" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J255" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>592</v>
       </c>
@@ -11107,11 +12130,15 @@
         <v>618</v>
       </c>
       <c r="H256" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J256" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>592</v>
       </c>
@@ -11134,11 +12161,15 @@
         <v>621</v>
       </c>
       <c r="H257" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J257" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>592</v>
       </c>
@@ -11161,11 +12192,15 @@
         <v>623</v>
       </c>
       <c r="H258" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J258" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>624</v>
       </c>
@@ -11188,11 +12223,15 @@
         <v>628</v>
       </c>
       <c r="H259" t="b">
-        <f t="shared" ref="H259:H322" si="4">IF(ISERROR(VLOOKUP(G259, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H259:H322" si="8">IF(ISERROR(VLOOKUP(G259, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="J259" t="b">
+        <f t="shared" ref="J259:J322" si="9">IF(ISERROR(VLOOKUP(I259, $G$2:$G$416, 1, FALSE)), FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>624</v>
       </c>
@@ -11215,11 +12254,15 @@
         <v>631</v>
       </c>
       <c r="H260" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J260" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>624</v>
       </c>
@@ -11242,11 +12285,15 @@
         <v>634</v>
       </c>
       <c r="H261" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J261" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>624</v>
       </c>
@@ -11269,11 +12316,15 @@
         <v>636</v>
       </c>
       <c r="H262" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J262" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>624</v>
       </c>
@@ -11296,11 +12347,15 @@
         <v>639</v>
       </c>
       <c r="H263" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J263" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>624</v>
       </c>
@@ -11323,11 +12378,15 @@
         <v>642</v>
       </c>
       <c r="H264" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J264" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>624</v>
       </c>
@@ -11350,11 +12409,15 @@
         <v>645</v>
       </c>
       <c r="H265" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J265" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>624</v>
       </c>
@@ -11377,11 +12440,15 @@
         <v>647</v>
       </c>
       <c r="H266" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J266" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>624</v>
       </c>
@@ -11404,11 +12471,15 @@
         <v>649</v>
       </c>
       <c r="H267" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J267" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>624</v>
       </c>
@@ -11431,11 +12502,15 @@
         <v>652</v>
       </c>
       <c r="H268" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J268" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>624</v>
       </c>
@@ -11458,11 +12533,15 @@
         <v>654</v>
       </c>
       <c r="H269" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J269" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>624</v>
       </c>
@@ -11485,11 +12564,15 @@
         <v>657</v>
       </c>
       <c r="H270" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J270" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>624</v>
       </c>
@@ -11512,11 +12595,15 @@
         <v>660</v>
       </c>
       <c r="H271" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J271" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>624</v>
       </c>
@@ -11539,11 +12626,15 @@
         <v>663</v>
       </c>
       <c r="H272" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J272" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>624</v>
       </c>
@@ -11566,11 +12657,15 @@
         <v>665</v>
       </c>
       <c r="H273" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J273" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>624</v>
       </c>
@@ -11593,11 +12688,15 @@
         <v>668</v>
       </c>
       <c r="H274" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J274" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>624</v>
       </c>
@@ -11620,11 +12719,15 @@
         <v>671</v>
       </c>
       <c r="H275" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J275" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>624</v>
       </c>
@@ -11647,11 +12750,15 @@
         <v>673</v>
       </c>
       <c r="H276" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J276" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>624</v>
       </c>
@@ -11674,11 +12781,15 @@
         <v>675</v>
       </c>
       <c r="H277" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J277" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>624</v>
       </c>
@@ -11701,11 +12812,15 @@
         <v>677</v>
       </c>
       <c r="H278" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J278" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>624</v>
       </c>
@@ -11728,11 +12843,15 @@
         <v>680</v>
       </c>
       <c r="H279" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J279" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>624</v>
       </c>
@@ -11755,11 +12874,15 @@
         <v>682</v>
       </c>
       <c r="H280" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J280" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>624</v>
       </c>
@@ -11782,11 +12905,15 @@
         <v>685</v>
       </c>
       <c r="H281" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J281" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>624</v>
       </c>
@@ -11809,11 +12936,15 @@
         <v>687</v>
       </c>
       <c r="H282" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J282" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>624</v>
       </c>
@@ -11836,11 +12967,15 @@
         <v>690</v>
       </c>
       <c r="H283" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J283" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>624</v>
       </c>
@@ -11863,11 +12998,15 @@
         <v>693</v>
       </c>
       <c r="H284" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J284" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>624</v>
       </c>
@@ -11890,11 +13029,15 @@
         <v>696</v>
       </c>
       <c r="H285" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J285" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>697</v>
       </c>
@@ -11917,11 +13060,15 @@
         <v>701</v>
       </c>
       <c r="H286" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J286" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>697</v>
       </c>
@@ -11944,11 +13091,15 @@
         <v>704</v>
       </c>
       <c r="H287" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J287" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>697</v>
       </c>
@@ -11971,11 +13122,15 @@
         <v>706</v>
       </c>
       <c r="H288" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J288" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>697</v>
       </c>
@@ -11998,11 +13153,15 @@
         <v>709</v>
       </c>
       <c r="H289" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J289" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>697</v>
       </c>
@@ -12025,11 +13184,15 @@
         <v>711</v>
       </c>
       <c r="H290" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J290" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>697</v>
       </c>
@@ -12052,11 +13215,15 @@
         <v>714</v>
       </c>
       <c r="H291" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J291" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>715</v>
       </c>
@@ -12079,11 +13246,15 @@
         <v>719</v>
       </c>
       <c r="H292" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J292" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>715</v>
       </c>
@@ -12106,11 +13277,15 @@
         <v>722</v>
       </c>
       <c r="H293" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J293" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>715</v>
       </c>
@@ -12133,11 +13308,15 @@
         <v>725</v>
       </c>
       <c r="H294" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J294" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>715</v>
       </c>
@@ -12160,11 +13339,15 @@
         <v>727</v>
       </c>
       <c r="H295" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J295" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>715</v>
       </c>
@@ -12187,11 +13370,15 @@
         <v>730</v>
       </c>
       <c r="H296" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J296" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>715</v>
       </c>
@@ -12214,11 +13401,15 @@
         <v>732</v>
       </c>
       <c r="H297" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J297" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>715</v>
       </c>
@@ -12241,11 +13432,15 @@
         <v>735</v>
       </c>
       <c r="H298" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J298" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>715</v>
       </c>
@@ -12268,11 +13463,15 @@
         <v>738</v>
       </c>
       <c r="H299" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J299" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>715</v>
       </c>
@@ -12295,11 +13494,15 @@
         <v>741</v>
       </c>
       <c r="H300" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J300" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>715</v>
       </c>
@@ -12322,11 +13525,15 @@
         <v>744</v>
       </c>
       <c r="H301" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J301" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>745</v>
       </c>
@@ -12349,11 +13556,15 @@
         <v>749</v>
       </c>
       <c r="H302" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J302" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>745</v>
       </c>
@@ -12376,11 +13587,15 @@
         <v>752</v>
       </c>
       <c r="H303" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J303" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>745</v>
       </c>
@@ -12403,11 +13618,15 @@
         <v>755</v>
       </c>
       <c r="H304" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J304" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>745</v>
       </c>
@@ -12430,11 +13649,15 @@
         <v>758</v>
       </c>
       <c r="H305" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J305" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>745</v>
       </c>
@@ -12457,11 +13680,15 @@
         <v>760</v>
       </c>
       <c r="H306" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J306" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>745</v>
       </c>
@@ -12484,11 +13711,15 @@
         <v>762</v>
       </c>
       <c r="H307" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J307" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>745</v>
       </c>
@@ -12511,11 +13742,15 @@
         <v>764</v>
       </c>
       <c r="H308" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J308" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>745</v>
       </c>
@@ -12538,11 +13773,15 @@
         <v>766</v>
       </c>
       <c r="H309" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J309" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>745</v>
       </c>
@@ -12565,11 +13804,15 @@
         <v>768</v>
       </c>
       <c r="H310" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J310" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>745</v>
       </c>
@@ -12592,11 +13835,15 @@
         <v>770</v>
       </c>
       <c r="H311" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J311" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>745</v>
       </c>
@@ -12619,11 +13866,15 @@
         <v>772</v>
       </c>
       <c r="H312" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J312" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>745</v>
       </c>
@@ -12646,11 +13897,15 @@
         <v>774</v>
       </c>
       <c r="H313" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J313" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>775</v>
       </c>
@@ -12673,11 +13928,15 @@
         <v>779</v>
       </c>
       <c r="H314" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J314" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>775</v>
       </c>
@@ -12700,11 +13959,15 @@
         <v>782</v>
       </c>
       <c r="H315" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J315" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>775</v>
       </c>
@@ -12727,11 +13990,15 @@
         <v>785</v>
       </c>
       <c r="H316" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J316" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>775</v>
       </c>
@@ -12754,11 +14021,15 @@
         <v>788</v>
       </c>
       <c r="H317" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J317" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>775</v>
       </c>
@@ -12781,11 +14052,15 @@
         <v>790</v>
       </c>
       <c r="H318" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J318" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>775</v>
       </c>
@@ -12808,11 +14083,15 @@
         <v>792</v>
       </c>
       <c r="H319" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J319" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>775</v>
       </c>
@@ -12835,11 +14114,15 @@
         <v>794</v>
       </c>
       <c r="H320" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J320" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>775</v>
       </c>
@@ -12862,11 +14145,15 @@
         <v>796</v>
       </c>
       <c r="H321" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J321" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>775</v>
       </c>
@@ -12889,11 +14176,15 @@
         <v>798</v>
       </c>
       <c r="H322" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J322" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>775</v>
       </c>
@@ -12916,11 +14207,15 @@
         <v>801</v>
       </c>
       <c r="H323" t="b">
-        <f t="shared" ref="H323:H386" si="5">IF(ISERROR(VLOOKUP(G323, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H323:H386" si="10">IF(ISERROR(VLOOKUP(G323, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="J323" t="b">
+        <f t="shared" ref="J323:J386" si="11">IF(ISERROR(VLOOKUP(I323, $G$2:$G$416, 1, FALSE)), FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>775</v>
       </c>
@@ -12943,11 +14238,15 @@
         <v>804</v>
       </c>
       <c r="H324" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J324" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>775</v>
       </c>
@@ -12970,11 +14269,15 @@
         <v>807</v>
       </c>
       <c r="H325" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J325" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>775</v>
       </c>
@@ -12997,11 +14300,15 @@
         <v>809</v>
       </c>
       <c r="H326" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J326" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>775</v>
       </c>
@@ -13024,11 +14331,15 @@
         <v>811</v>
       </c>
       <c r="H327" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J327" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>775</v>
       </c>
@@ -13051,11 +14362,15 @@
         <v>813</v>
       </c>
       <c r="H328" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J328" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>775</v>
       </c>
@@ -13078,11 +14393,15 @@
         <v>815</v>
       </c>
       <c r="H329" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J329" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>775</v>
       </c>
@@ -13105,11 +14424,15 @@
         <v>818</v>
       </c>
       <c r="H330" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J330" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>775</v>
       </c>
@@ -13132,11 +14455,15 @@
         <v>820</v>
       </c>
       <c r="H331" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J331" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>775</v>
       </c>
@@ -13159,11 +14486,15 @@
         <v>823</v>
       </c>
       <c r="H332" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J332" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>775</v>
       </c>
@@ -13186,11 +14517,15 @@
         <v>825</v>
       </c>
       <c r="H333" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J333" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>775</v>
       </c>
@@ -13213,11 +14548,15 @@
         <v>827</v>
       </c>
       <c r="H334" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J334" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>775</v>
       </c>
@@ -13240,11 +14579,15 @@
         <v>829</v>
       </c>
       <c r="H335" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J335" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>775</v>
       </c>
@@ -13267,11 +14610,15 @@
         <v>832</v>
       </c>
       <c r="H336" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J336" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>775</v>
       </c>
@@ -13294,11 +14641,15 @@
         <v>835</v>
       </c>
       <c r="H337" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J337" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>775</v>
       </c>
@@ -13321,11 +14672,15 @@
         <v>838</v>
       </c>
       <c r="H338" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J338" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>775</v>
       </c>
@@ -13348,11 +14703,15 @@
         <v>841</v>
       </c>
       <c r="H339" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J339" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>842</v>
       </c>
@@ -13375,11 +14734,15 @@
         <v>846</v>
       </c>
       <c r="H340" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J340" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>842</v>
       </c>
@@ -13402,11 +14765,15 @@
         <v>849</v>
       </c>
       <c r="H341" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J341" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>842</v>
       </c>
@@ -13429,11 +14796,15 @@
         <v>852</v>
       </c>
       <c r="H342" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J342" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>842</v>
       </c>
@@ -13456,11 +14827,15 @@
         <v>855</v>
       </c>
       <c r="H343" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J343" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>842</v>
       </c>
@@ -13483,11 +14858,15 @@
         <v>858</v>
       </c>
       <c r="H344" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J344" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>842</v>
       </c>
@@ -13510,11 +14889,15 @@
         <v>861</v>
       </c>
       <c r="H345" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J345" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>842</v>
       </c>
@@ -13537,11 +14920,15 @@
         <v>863</v>
       </c>
       <c r="H346" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J346" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>842</v>
       </c>
@@ -13564,11 +14951,15 @@
         <v>865</v>
       </c>
       <c r="H347" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J347" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>842</v>
       </c>
@@ -13591,11 +14982,15 @@
         <v>867</v>
       </c>
       <c r="H348" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J348" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>842</v>
       </c>
@@ -13618,11 +15013,15 @@
         <v>869</v>
       </c>
       <c r="H349" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J349" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>842</v>
       </c>
@@ -13645,11 +15044,15 @@
         <v>871</v>
       </c>
       <c r="H350" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J350" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>842</v>
       </c>
@@ -13672,11 +15075,15 @@
         <v>873</v>
       </c>
       <c r="H351" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J351" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>842</v>
       </c>
@@ -13699,11 +15106,15 @@
         <v>875</v>
       </c>
       <c r="H352" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J352" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>842</v>
       </c>
@@ -13726,11 +15137,15 @@
         <v>877</v>
       </c>
       <c r="H353" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J353" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>842</v>
       </c>
@@ -13753,11 +15168,15 @@
         <v>879</v>
       </c>
       <c r="H354" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J354" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>842</v>
       </c>
@@ -13780,11 +15199,15 @@
         <v>881</v>
       </c>
       <c r="H355" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J355" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>842</v>
       </c>
@@ -13807,11 +15230,15 @@
         <v>883</v>
       </c>
       <c r="H356" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J356" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>842</v>
       </c>
@@ -13834,11 +15261,15 @@
         <v>886</v>
       </c>
       <c r="H357" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J357" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>842</v>
       </c>
@@ -13861,11 +15292,15 @@
         <v>888</v>
       </c>
       <c r="H358" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J358" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>842</v>
       </c>
@@ -13888,11 +15323,15 @@
         <v>891</v>
       </c>
       <c r="H359" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J359" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>842</v>
       </c>
@@ -13915,11 +15354,15 @@
         <v>894</v>
       </c>
       <c r="H360" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J360" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>842</v>
       </c>
@@ -13942,11 +15385,15 @@
         <v>896</v>
       </c>
       <c r="H361" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J361" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>842</v>
       </c>
@@ -13969,11 +15416,15 @@
         <v>898</v>
       </c>
       <c r="H362" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J362" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>842</v>
       </c>
@@ -13996,11 +15447,15 @@
         <v>900</v>
       </c>
       <c r="H363" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J363" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>842</v>
       </c>
@@ -14023,11 +15478,15 @@
         <v>902</v>
       </c>
       <c r="H364" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J364" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>842</v>
       </c>
@@ -14050,11 +15509,15 @@
         <v>905</v>
       </c>
       <c r="H365" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J365" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>842</v>
       </c>
@@ -14077,11 +15540,15 @@
         <v>908</v>
       </c>
       <c r="H366" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J366" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>842</v>
       </c>
@@ -14104,11 +15571,15 @@
         <v>911</v>
       </c>
       <c r="H367" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J367" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>842</v>
       </c>
@@ -14131,11 +15602,15 @@
         <v>914</v>
       </c>
       <c r="H368" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J368" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>842</v>
       </c>
@@ -14158,11 +15633,15 @@
         <v>917</v>
       </c>
       <c r="H369" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J369" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>842</v>
       </c>
@@ -14185,11 +15664,15 @@
         <v>920</v>
       </c>
       <c r="H370" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J370" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>842</v>
       </c>
@@ -14212,11 +15695,15 @@
         <v>923</v>
       </c>
       <c r="H371" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J371" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>842</v>
       </c>
@@ -14239,11 +15726,15 @@
         <v>926</v>
       </c>
       <c r="H372" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J372" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>842</v>
       </c>
@@ -14266,11 +15757,15 @@
         <v>928</v>
       </c>
       <c r="H373" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J373" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>842</v>
       </c>
@@ -14293,11 +15788,15 @@
         <v>931</v>
       </c>
       <c r="H374" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J374" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>842</v>
       </c>
@@ -14320,11 +15819,15 @@
         <v>934</v>
       </c>
       <c r="H375" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J375" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>842</v>
       </c>
@@ -14347,11 +15850,15 @@
         <v>935</v>
       </c>
       <c r="H376" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J376" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>842</v>
       </c>
@@ -14374,11 +15881,15 @@
         <v>938</v>
       </c>
       <c r="H377" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J377" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>939</v>
       </c>
@@ -14401,11 +15912,15 @@
         <v>943</v>
       </c>
       <c r="H378" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J378" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>939</v>
       </c>
@@ -14428,11 +15943,15 @@
         <v>946</v>
       </c>
       <c r="H379" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J379" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>939</v>
       </c>
@@ -14455,11 +15974,15 @@
         <v>948</v>
       </c>
       <c r="H380" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J380" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>939</v>
       </c>
@@ -14482,11 +16005,15 @@
         <v>950</v>
       </c>
       <c r="H381" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J381" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>939</v>
       </c>
@@ -14509,11 +16036,15 @@
         <v>952</v>
       </c>
       <c r="H382" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J382" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>939</v>
       </c>
@@ -14536,11 +16067,15 @@
         <v>955</v>
       </c>
       <c r="H383" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J383" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>939</v>
       </c>
@@ -14563,11 +16098,15 @@
         <v>956</v>
       </c>
       <c r="H384" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J384" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>939</v>
       </c>
@@ -14590,11 +16129,15 @@
         <v>958</v>
       </c>
       <c r="H385" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J385" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>939</v>
       </c>
@@ -14617,11 +16160,15 @@
         <v>960</v>
       </c>
       <c r="H386" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J386" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>939</v>
       </c>
@@ -14644,11 +16191,15 @@
         <v>963</v>
       </c>
       <c r="H387" t="b">
-        <f t="shared" ref="H387:H416" si="6">IF(ISERROR(VLOOKUP(G387, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H387:H416" si="12">IF(ISERROR(VLOOKUP(G387, $I$2:$I$201, 1, FALSE)), FALSE, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="J387" t="b">
+        <f t="shared" ref="J387:J416" si="13">IF(ISERROR(VLOOKUP(I387, $G$2:$G$416, 1, FALSE)), FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>939</v>
       </c>
@@ -14671,11 +16222,15 @@
         <v>965</v>
       </c>
       <c r="H388" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J388" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>939</v>
       </c>
@@ -14698,11 +16253,15 @@
         <v>967</v>
       </c>
       <c r="H389" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J389" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>939</v>
       </c>
@@ -14725,11 +16284,15 @@
         <v>969</v>
       </c>
       <c r="H390" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J390" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>939</v>
       </c>
@@ -14752,11 +16315,15 @@
         <v>971</v>
       </c>
       <c r="H391" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J391" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>939</v>
       </c>
@@ -14779,11 +16346,15 @@
         <v>973</v>
       </c>
       <c r="H392" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J392" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>939</v>
       </c>
@@ -14806,11 +16377,15 @@
         <v>975</v>
       </c>
       <c r="H393" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J393" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>939</v>
       </c>
@@ -14833,11 +16408,15 @@
         <v>977</v>
       </c>
       <c r="H394" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J394" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>939</v>
       </c>
@@ -14860,11 +16439,15 @@
         <v>979</v>
       </c>
       <c r="H395" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J395" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>939</v>
       </c>
@@ -14887,11 +16470,15 @@
         <v>981</v>
       </c>
       <c r="H396" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J396" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>939</v>
       </c>
@@ -14914,11 +16501,15 @@
         <v>983</v>
       </c>
       <c r="H397" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J397" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>939</v>
       </c>
@@ -14941,11 +16532,15 @@
         <v>985</v>
       </c>
       <c r="H398" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J398" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>939</v>
       </c>
@@ -14968,11 +16563,15 @@
         <v>987</v>
       </c>
       <c r="H399" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J399" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>939</v>
       </c>
@@ -14995,11 +16594,15 @@
         <v>989</v>
       </c>
       <c r="H400" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J400" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>939</v>
       </c>
@@ -15022,11 +16625,15 @@
         <v>992</v>
       </c>
       <c r="H401" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J401" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>939</v>
       </c>
@@ -15049,11 +16656,15 @@
         <v>994</v>
       </c>
       <c r="H402" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J402" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>939</v>
       </c>
@@ -15076,11 +16687,15 @@
         <v>997</v>
       </c>
       <c r="H403" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J403" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>939</v>
       </c>
@@ -15103,11 +16718,15 @@
         <v>1000</v>
       </c>
       <c r="H404" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J404" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>939</v>
       </c>
@@ -15130,11 +16749,15 @@
         <v>1002</v>
       </c>
       <c r="H405" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J405" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>939</v>
       </c>
@@ -15157,11 +16780,15 @@
         <v>1004</v>
       </c>
       <c r="H406" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J406" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>939</v>
       </c>
@@ -15184,11 +16811,15 @@
         <v>1006</v>
       </c>
       <c r="H407" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J407" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>939</v>
       </c>
@@ -15211,11 +16842,15 @@
         <v>1008</v>
       </c>
       <c r="H408" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J408" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>939</v>
       </c>
@@ -15238,11 +16873,15 @@
         <v>1010</v>
       </c>
       <c r="H409" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J409" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>939</v>
       </c>
@@ -15265,11 +16904,15 @@
         <v>1013</v>
       </c>
       <c r="H410" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J410" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>939</v>
       </c>
@@ -15292,11 +16935,15 @@
         <v>1014</v>
       </c>
       <c r="H411" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J411" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>939</v>
       </c>
@@ -15319,11 +16966,15 @@
         <v>1015</v>
       </c>
       <c r="H412" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J412" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>939</v>
       </c>
@@ -15346,11 +16997,15 @@
         <v>1018</v>
       </c>
       <c r="H413" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J413" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>939</v>
       </c>
@@ -15373,11 +17028,15 @@
         <v>1021</v>
       </c>
       <c r="H414" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J414" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>939</v>
       </c>
@@ -15400,11 +17059,15 @@
         <v>1024</v>
       </c>
       <c r="H415" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J415" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>939</v>
       </c>
@@ -15427,7 +17090,11 @@
         <v>1027</v>
       </c>
       <c r="H416" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J416" t="b">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
